--- a/results/tables/RemoteMachine.xlsx
+++ b/results/tables/RemoteMachine.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\RSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\napier-constant\results\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <r>
       <rPr>
@@ -51,6 +51,12 @@
 Точност
 </t>
     </r>
+  </si>
+  <si>
+    <t>Ускорение</t>
+  </si>
+  <si>
+    <t>Ефективност</t>
   </si>
 </sst>
 </file>
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -132,6 +138,9 @@
       <alignment textRotation="135" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -417,15 +426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y34"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
@@ -509,7 +518,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1000</v>
       </c>
       <c r="B2" s="1">
@@ -586,7 +595,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1">
         <v>10.2863030434</v>
       </c>
@@ -661,7 +670,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1">
         <v>10.2860631943</v>
       </c>
@@ -736,7 +745,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="1">
         <v>10.9285180569</v>
       </c>
@@ -811,7 +820,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1">
         <v>10.790171146400001</v>
       </c>
@@ -886,7 +895,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1">
         <v>10.2600469589</v>
       </c>
@@ -961,7 +970,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="1">
         <v>10.1185948849</v>
       </c>
@@ -1036,7 +1045,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1">
         <v>9.3021080493900001</v>
       </c>
@@ -1111,7 +1120,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1">
         <v>10.1510868073</v>
       </c>
@@ -1186,9 +1195,9 @@
       </c>
     </row>
     <row r="11" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="1">
-        <v>11.4845900536</v>
+        <v>9.4693529605899993</v>
       </c>
       <c r="C11">
         <v>4.73915696144</v>
@@ -1261,10 +1270,10 @@
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="2">
         <f>AVERAGE(B2:B11)</f>
-        <v>10.411387634299</v>
+        <v>10.209863924998</v>
       </c>
       <c r="C12" s="2">
         <f>AVERAGE(C2:C11)</f>
@@ -1359,1713 +1368,2319 @@
         <v>0.79115240573889989</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
+    <row r="13" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <f>$B$12/B12</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:Y13" si="1">$B$12/C12</f>
+        <v>1.9793714461805261</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>2.8983593555184246</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9105659195674667</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>4.7778308966863605</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8560653465170747</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7982611910573825</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="1"/>
+        <v>7.6831609538864791</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>8.4079017358521178</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>9.3850535838795022</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="1"/>
+        <v>9.7847412020832092</v>
+      </c>
+      <c r="M13" s="2">
+        <f t="shared" si="1"/>
+        <v>10.389383875357987</v>
+      </c>
+      <c r="N13" s="2">
+        <f t="shared" si="1"/>
+        <v>10.778974365615902</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="1"/>
+        <v>10.982807705624923</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="1"/>
+        <v>11.845817719714002</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="1"/>
+        <v>11.766114312473842</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" si="1"/>
+        <v>12.441111325281991</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="1"/>
+        <v>12.095456161859774</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="1"/>
+        <v>11.905208505953516</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="1"/>
+        <v>11.984653287999214</v>
+      </c>
+      <c r="V13" s="2">
+        <f t="shared" si="1"/>
+        <v>11.895318944229492</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="1"/>
+        <v>12.247622828611544</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="1"/>
+        <v>13.022465776922482</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="1"/>
+        <v>12.905053250090869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2">
+        <f>B13/B1</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" ref="C14:Y14" si="2">C13/C1</f>
+        <v>0.98968572309026304</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96611978517280817</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97764147989186667</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95556617933727206</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97601089108617911</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.97118017015105462</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.96039511923580989</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.93421130398356866</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.93850535838795024</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.8895219274621099</v>
+      </c>
+      <c r="M14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.86578198961316566</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.82915187427814629</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.78448626468749449</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.78972118131426683</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.73538214452961514</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.73183007795776422</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.67196978676998742</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.62658992136597447</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5992326643999607</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.56644375924902346</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.55671012857325197</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.56619416421402102</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5377105520871196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>2000</v>
       </c>
-      <c r="B13">
-        <v>79.312119960800004</v>
-      </c>
-      <c r="C13">
+      <c r="B15">
+        <v>76.312119960800004</v>
+      </c>
+      <c r="C15">
         <v>38.218266010299999</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <v>25.4224870205</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>19.172929048499999</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <v>15.875262021999999</v>
       </c>
-      <c r="G13">
+      <c r="G15">
         <v>13.469453811599999</v>
       </c>
-      <c r="H13">
+      <c r="H15">
         <v>10.8135809898</v>
       </c>
-      <c r="I13">
+      <c r="I15">
         <v>9.5076770782499995</v>
       </c>
-      <c r="J13">
+      <c r="J15">
         <v>8.4813828468299999</v>
       </c>
-      <c r="K13">
+      <c r="K15">
         <v>7.7760219574000002</v>
       </c>
-      <c r="L13">
+      <c r="L15">
         <v>6.9880878925300003</v>
       </c>
-      <c r="M13">
+      <c r="M15">
         <v>6.8203058242800001</v>
       </c>
-      <c r="N13">
+      <c r="N15">
         <v>6.6123552322399997</v>
       </c>
-      <c r="O13">
+      <c r="O15">
         <v>5.8671030998199996</v>
       </c>
-      <c r="P13">
+      <c r="P15">
         <v>5.6689269542699998</v>
       </c>
-      <c r="Q13">
+      <c r="Q15">
         <v>5.5280649661999997</v>
       </c>
-      <c r="R13">
+      <c r="R15">
         <v>5.3872859477999997</v>
       </c>
-      <c r="S13">
+      <c r="S15">
         <v>5.4565739631700003</v>
       </c>
-      <c r="T13">
+      <c r="T15">
         <v>5.01514005661</v>
       </c>
-      <c r="U13">
+      <c r="U15">
         <v>4.7424421310399998</v>
       </c>
-      <c r="V13">
+      <c r="V15">
         <v>4.7346398830399998</v>
       </c>
-      <c r="W13">
+      <c r="W15">
         <v>4.6237139701799999</v>
       </c>
-      <c r="X13">
+      <c r="X15">
         <v>4.4667210578900001</v>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <v>4.5284631252300001</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14">
-        <v>78.709487914999997</v>
-      </c>
-      <c r="C14">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16">
+        <v>76.709487914999997</v>
+      </c>
+      <c r="C16">
         <v>39.544920921299997</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>25.5198299885</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>19.9438052177</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <v>15.352975130100001</v>
       </c>
-      <c r="G14">
+      <c r="G16">
         <v>12.8858690262</v>
       </c>
-      <c r="H14">
+      <c r="H16">
         <v>10.874324083299999</v>
       </c>
-      <c r="I14">
+      <c r="I16">
         <v>9.5541710853600001</v>
       </c>
-      <c r="J14">
+      <c r="J16">
         <v>8.6081271171600005</v>
       </c>
-      <c r="K14">
+      <c r="K16">
         <v>7.57290005684</v>
       </c>
-      <c r="L14">
+      <c r="L16">
         <v>7.3309228420299997</v>
       </c>
-      <c r="M14">
+      <c r="M16">
         <v>6.5884780883799996</v>
       </c>
-      <c r="N14">
+      <c r="N16">
         <v>6.5494349002799996</v>
       </c>
-      <c r="O14">
+      <c r="O16">
         <v>5.9531290531199996</v>
       </c>
-      <c r="P14">
+      <c r="P16">
         <v>5.9462900161699999</v>
       </c>
-      <c r="Q14">
+      <c r="Q16">
         <v>5.6507289409599997</v>
       </c>
-      <c r="R14">
+      <c r="R16">
         <v>5.4372169971500002</v>
       </c>
-      <c r="S14">
+      <c r="S16">
         <v>5.1271209716800001</v>
       </c>
-      <c r="T14">
+      <c r="T16">
         <v>5.0429029464699999</v>
       </c>
-      <c r="U14">
+      <c r="U16">
         <v>4.8886029720300002</v>
       </c>
-      <c r="V14">
+      <c r="V16">
         <v>4.96159005165</v>
       </c>
-      <c r="W14">
+      <c r="W16">
         <v>4.5351738929699996</v>
       </c>
-      <c r="X14">
+      <c r="X16">
         <v>4.42999792099</v>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <v>4.4840698242199997</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15">
-        <v>79.740325927699999</v>
-      </c>
-      <c r="C15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17">
+        <v>76.740325927699999</v>
+      </c>
+      <c r="C17">
         <v>40.137310028100003</v>
       </c>
-      <c r="D15">
+      <c r="D17">
         <v>25.530658006700001</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>19.997491121300001</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <v>16.105376958800001</v>
       </c>
-      <c r="G15">
+      <c r="G17">
         <v>13.0007178783</v>
       </c>
-      <c r="H15">
+      <c r="H17">
         <v>10.822656869899999</v>
       </c>
-      <c r="I15">
+      <c r="I17">
         <v>9.4481220245399999</v>
       </c>
-      <c r="J15">
+      <c r="J17">
         <v>8.7244110107400008</v>
       </c>
-      <c r="K15">
+      <c r="K17">
         <v>7.8334279060399998</v>
       </c>
-      <c r="L15">
+      <c r="L17">
         <v>7.0501761436499999</v>
       </c>
-      <c r="M15">
+      <c r="M17">
         <v>6.6277258396100001</v>
       </c>
-      <c r="N15">
+      <c r="N17">
         <v>6.53223109245</v>
       </c>
-      <c r="O15">
+      <c r="O17">
         <v>6.1620659828199997</v>
       </c>
-      <c r="P15">
+      <c r="P17">
         <v>5.9946699142500002</v>
       </c>
-      <c r="Q15">
+      <c r="Q17">
         <v>5.8009831905400002</v>
       </c>
-      <c r="R15">
+      <c r="R17">
         <v>5.5000450611099998</v>
       </c>
-      <c r="S15">
+      <c r="S17">
         <v>5.0802531242400004</v>
       </c>
-      <c r="T15">
+      <c r="T17">
         <v>5.0095059871699998</v>
       </c>
-      <c r="U15">
+      <c r="U17">
         <v>5.1430439949000002</v>
       </c>
-      <c r="V15">
+      <c r="V17">
         <v>4.7838129997300003</v>
       </c>
-      <c r="W15">
+      <c r="W17">
         <v>4.6627168655400002</v>
       </c>
-      <c r="X15">
+      <c r="X17">
         <v>4.5906500816299998</v>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <v>4.8052239417999996</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16">
-        <v>78.917491912800003</v>
-      </c>
-      <c r="C16">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18">
+        <v>76.917491912800003</v>
+      </c>
+      <c r="C18">
         <v>39.378877878200001</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>25.832599878300002</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>19.786487102500001</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>15.7578279972</v>
       </c>
-      <c r="G16">
+      <c r="G18">
         <v>12.6581220627</v>
       </c>
-      <c r="H16">
+      <c r="H18">
         <v>11.2002379894</v>
       </c>
-      <c r="I16">
+      <c r="I18">
         <v>9.5747940540300007</v>
       </c>
-      <c r="J16">
+      <c r="J18">
         <v>8.5924010276799994</v>
       </c>
-      <c r="K16">
+      <c r="K18">
         <v>7.7313821315800002</v>
       </c>
-      <c r="L16">
+      <c r="L18">
         <v>7.0297238826799999</v>
       </c>
-      <c r="M16">
+      <c r="M18">
         <v>6.4124219417599999</v>
       </c>
-      <c r="N16">
+      <c r="N18">
         <v>6.5191719531999999</v>
       </c>
-      <c r="O16">
+      <c r="O18">
         <v>5.8584759235400004</v>
       </c>
-      <c r="P16">
+      <c r="P18">
         <v>6.1076850891100003</v>
       </c>
-      <c r="Q16">
+      <c r="Q18">
         <v>5.4811549186699997</v>
       </c>
-      <c r="R16">
+      <c r="R18">
         <v>5.6136338710800002</v>
       </c>
-      <c r="S16">
+      <c r="S18">
         <v>5.3471949100499998</v>
       </c>
-      <c r="T16">
+      <c r="T18">
         <v>5.1211249828299996</v>
       </c>
-      <c r="U16">
+      <c r="U18">
         <v>4.7295691967</v>
       </c>
-      <c r="V16">
+      <c r="V18">
         <v>4.7225818634000003</v>
       </c>
-      <c r="W16">
+      <c r="W18">
         <v>4.6770670414</v>
       </c>
-      <c r="X16">
+      <c r="X18">
         <v>4.6725311279300001</v>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <v>4.58050298691</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17">
-        <v>79.770443916299996</v>
-      </c>
-      <c r="C17">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19">
+        <v>77.770443916299996</v>
+      </c>
+      <c r="C19">
         <v>39.410917043700003</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>25.521655082700001</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>20.829814910900001</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>15.885607004200001</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>12.864521980299999</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <v>10.993901967999999</v>
       </c>
-      <c r="I17">
+      <c r="I19">
         <v>9.48614001274</v>
       </c>
-      <c r="J17">
+      <c r="J19">
         <v>8.8962569236799993</v>
       </c>
-      <c r="K17">
+      <c r="K19">
         <v>7.72179412842</v>
       </c>
-      <c r="L17">
+      <c r="L19">
         <v>7.1579389572099998</v>
       </c>
-      <c r="M17">
+      <c r="M19">
         <v>6.5054421424899997</v>
       </c>
-      <c r="N17">
+      <c r="N19">
         <v>6.7541301250499997</v>
       </c>
-      <c r="O17">
+      <c r="O19">
         <v>6.3194479942299999</v>
       </c>
-      <c r="P17">
+      <c r="P19">
         <v>5.9548621177700003</v>
       </c>
-      <c r="Q17">
+      <c r="Q19">
         <v>5.7502000331899996</v>
       </c>
-      <c r="R17">
+      <c r="R19">
         <v>5.3855149745900004</v>
       </c>
-      <c r="S17">
+      <c r="S19">
         <v>5.2327871322600004</v>
       </c>
-      <c r="T17">
+      <c r="T19">
         <v>5.1866719722700001</v>
       </c>
-      <c r="U17">
+      <c r="U19">
         <v>4.9262771606399998</v>
       </c>
-      <c r="V17">
+      <c r="V19">
         <v>4.5999310016599999</v>
       </c>
-      <c r="W17">
+      <c r="W19">
         <v>4.5848369598399996</v>
       </c>
-      <c r="X17">
+      <c r="X19">
         <v>4.5450282096899999</v>
       </c>
-      <c r="Y17">
+      <c r="Y19">
         <v>4.3974719047499997</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18">
-        <v>79.2465040684</v>
-      </c>
-      <c r="C18">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20">
+        <v>76.2465040684</v>
+      </c>
+      <c r="C20">
         <v>37.9118740559</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>25.7805991173</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>18.8433470726</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <v>15.2259659767</v>
       </c>
-      <c r="G18">
+      <c r="G20">
         <v>13.114866972</v>
       </c>
-      <c r="H18">
+      <c r="H20">
         <v>10.9612700939</v>
       </c>
-      <c r="I18">
+      <c r="I20">
         <v>9.8851590156599993</v>
       </c>
-      <c r="J18">
+      <c r="J20">
         <v>8.7361061573000001</v>
       </c>
-      <c r="K18">
+      <c r="K20">
         <v>7.7754731178299998</v>
       </c>
-      <c r="L18">
+      <c r="L20">
         <v>7.2575390338899997</v>
       </c>
-      <c r="M18">
+      <c r="M20">
         <v>6.5200839042699998</v>
       </c>
-      <c r="N18">
+      <c r="N20">
         <v>6.3478510379799999</v>
       </c>
-      <c r="O18">
+      <c r="O20">
         <v>6.36453986168</v>
       </c>
-      <c r="P18">
+      <c r="P20">
         <v>6.3760740757000001</v>
       </c>
-      <c r="Q18">
+      <c r="Q20">
         <v>5.6679589748400003</v>
       </c>
-      <c r="R18">
+      <c r="R20">
         <v>5.3348388671900002</v>
       </c>
-      <c r="S18">
+      <c r="S20">
         <v>5.3125150203700002</v>
       </c>
-      <c r="T18">
+      <c r="T20">
         <v>4.9379651546499996</v>
       </c>
-      <c r="U18">
+      <c r="U20">
         <v>5.02259802818</v>
       </c>
-      <c r="V18">
+      <c r="V20">
         <v>4.8506791591600003</v>
       </c>
-      <c r="W18">
+      <c r="W20">
         <v>4.6215600967399997</v>
       </c>
-      <c r="X18">
+      <c r="X20">
         <v>4.4586379528000002</v>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <v>4.5168528556799998</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19">
-        <v>82.093384027499994</v>
-      </c>
-      <c r="C19">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21">
+        <v>76.970005035400007</v>
+      </c>
+      <c r="C21">
         <v>38.602478027300002</v>
       </c>
-      <c r="D19">
-        <v>25.236660003699999</v>
-      </c>
-      <c r="E19">
+      <c r="D21">
+        <v>25.8366600037</v>
+      </c>
+      <c r="E21">
         <v>19.732022047000001</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <v>15.035802841200001</v>
       </c>
-      <c r="G19">
+      <c r="G21">
         <v>13.392946004900001</v>
       </c>
-      <c r="H19">
+      <c r="H21">
         <v>11.361152887299999</v>
       </c>
-      <c r="I19">
+      <c r="I21">
         <v>9.8654291629799999</v>
       </c>
-      <c r="J19">
+      <c r="J21">
         <v>8.6460790634200002</v>
       </c>
-      <c r="K19">
+      <c r="K21">
         <v>7.7283861637099998</v>
       </c>
-      <c r="L19">
+      <c r="L21">
         <v>6.9371550083200004</v>
       </c>
-      <c r="M19">
+      <c r="M21">
         <v>6.45869207382</v>
       </c>
-      <c r="N19">
+      <c r="N21">
         <v>6.4995768070200004</v>
       </c>
-      <c r="O19">
+      <c r="O21">
         <v>5.9465410709400004</v>
       </c>
-      <c r="P19">
+      <c r="P21">
         <v>5.7184789180799998</v>
       </c>
-      <c r="Q19">
+      <c r="Q21">
         <v>5.6548690795900001</v>
       </c>
-      <c r="R19">
+      <c r="R21">
         <v>5.4806561470000004</v>
       </c>
-      <c r="S19">
+      <c r="S21">
         <v>5.21468400955</v>
       </c>
-      <c r="T19">
+      <c r="T21">
         <v>5.1231861114499999</v>
       </c>
-      <c r="U19">
+      <c r="U21">
         <v>4.8694651126900004</v>
       </c>
-      <c r="V19">
+      <c r="V21">
         <v>4.6659319400800001</v>
       </c>
-      <c r="W19">
+      <c r="W21">
         <v>4.6979880332899997</v>
       </c>
-      <c r="X19">
+      <c r="X21">
         <v>4.7140221595799998</v>
       </c>
-      <c r="Y19">
+      <c r="Y21">
         <v>4.62789678574</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20">
-        <v>79.539218902599998</v>
-      </c>
-      <c r="C20">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22">
+        <v>77.539218902599998</v>
+      </c>
+      <c r="C22">
         <v>40.857665062000002</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>25.376183033</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>19.3057589531</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <v>15.425785064699999</v>
       </c>
-      <c r="G20">
+      <c r="G22">
         <v>13.093629121799999</v>
       </c>
-      <c r="H20">
+      <c r="H22">
         <v>10.9395918846</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <v>9.6092131137799992</v>
       </c>
-      <c r="J20">
+      <c r="J22">
         <v>8.5817568302199998</v>
       </c>
-      <c r="K20">
+      <c r="K22">
         <v>7.8404340744000001</v>
       </c>
-      <c r="L20">
+      <c r="L22">
         <v>6.9595251083400003</v>
       </c>
-      <c r="M20">
+      <c r="M22">
         <v>6.5379481315600003</v>
       </c>
-      <c r="N20">
+      <c r="N22">
         <v>6.3293719291699997</v>
       </c>
-      <c r="O20">
+      <c r="O22">
         <v>6.5226440429699997</v>
       </c>
-      <c r="P20">
+      <c r="P22">
         <v>6.0452539920800001</v>
       </c>
-      <c r="Q20">
+      <c r="Q22">
         <v>5.4149060249299996</v>
       </c>
-      <c r="R20">
+      <c r="R22">
         <v>5.51703095436</v>
       </c>
-      <c r="S20">
+      <c r="S22">
         <v>5.14886689186</v>
       </c>
-      <c r="T20">
+      <c r="T22">
         <v>5.1975951194799999</v>
       </c>
-      <c r="U20">
+      <c r="U22">
         <v>4.9944221973399996</v>
       </c>
-      <c r="V20">
+      <c r="V22">
         <v>4.99883079529</v>
       </c>
-      <c r="W20">
+      <c r="W22">
         <v>4.64255094528</v>
       </c>
-      <c r="X20">
+      <c r="X22">
         <v>4.9978129863699996</v>
       </c>
-      <c r="Y20">
+      <c r="Y22">
         <v>4.51656079292</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21">
-        <v>80.104501009000003</v>
-      </c>
-      <c r="C21">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23">
+        <v>76.776773023600001</v>
+      </c>
+      <c r="C23">
         <v>39.357779979699998</v>
       </c>
-      <c r="D21">
+      <c r="D23">
         <v>25.652899026899998</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>19.166799068500001</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>16.1280970573</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <v>13.1442639828</v>
       </c>
-      <c r="H21">
+      <c r="H23">
         <v>11.080611944199999</v>
       </c>
-      <c r="I21">
+      <c r="I23">
         <v>9.6254789829299998</v>
       </c>
-      <c r="J21">
+      <c r="J23">
         <v>8.6350140571599994</v>
       </c>
-      <c r="K21">
+      <c r="K23">
         <v>7.8542408943200002</v>
       </c>
-      <c r="L21">
+      <c r="L23">
         <v>6.9351980686200001</v>
       </c>
-      <c r="M21">
+      <c r="M23">
         <v>6.9207451343499997</v>
       </c>
-      <c r="N21">
+      <c r="N23">
         <v>6.7397711277000001</v>
       </c>
-      <c r="O21">
+      <c r="O23">
         <v>6.0526378154799998</v>
       </c>
-      <c r="P21">
+      <c r="P23">
         <v>5.9183428287500002</v>
       </c>
-      <c r="Q21">
+      <c r="Q23">
         <v>5.8277451991999998</v>
       </c>
-      <c r="R21">
+      <c r="R23">
         <v>5.2924110889399998</v>
       </c>
-      <c r="S21">
+      <c r="S23">
         <v>5.1538109779400001</v>
       </c>
-      <c r="T21">
+      <c r="T23">
         <v>4.9850280284900004</v>
       </c>
-      <c r="U21">
+      <c r="U23">
         <v>4.8757231235500003</v>
       </c>
-      <c r="V21">
+      <c r="V23">
         <v>4.8404438495599997</v>
       </c>
-      <c r="W21">
+      <c r="W23">
         <v>4.6895339489000003</v>
       </c>
-      <c r="X21">
+      <c r="X23">
         <v>4.7261199951200004</v>
       </c>
-      <c r="Y21">
+      <c r="Y23">
         <v>4.5555589199100002</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22">
-        <v>81.240236043899998</v>
-      </c>
-      <c r="C22">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24">
+        <v>76.964753023599997</v>
+      </c>
+      <c r="C24">
         <v>37.782529115700001</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>26.270470857599999</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>19.5489499569</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <v>16.161715984299999</v>
       </c>
-      <c r="G22">
+      <c r="G24">
         <v>13.1225938797</v>
       </c>
-      <c r="H22">
+      <c r="H24">
         <v>10.862992048300001</v>
       </c>
-      <c r="I22">
+      <c r="I24">
         <v>9.6226341724399997</v>
       </c>
-      <c r="J22">
+      <c r="J24">
         <v>8.8239150047300008</v>
       </c>
-      <c r="K22">
+      <c r="K24">
         <v>7.5917019844100002</v>
       </c>
-      <c r="L22">
+      <c r="L24">
         <v>7.2295188903799996</v>
       </c>
-      <c r="M22">
+      <c r="M24">
         <v>6.5387160778000002</v>
       </c>
-      <c r="N22">
+      <c r="N24">
         <v>6.2168791294099996</v>
       </c>
-      <c r="O22">
+      <c r="O24">
         <v>6.0459840297699996</v>
       </c>
-      <c r="P22">
+      <c r="P24">
         <v>5.8288669586199999</v>
       </c>
-      <c r="Q22">
+      <c r="Q24">
         <v>5.3389477729800001</v>
       </c>
-      <c r="R22">
+      <c r="R24">
         <v>5.4575369358100003</v>
       </c>
-      <c r="S22">
+      <c r="S24">
         <v>5.5781819820400003</v>
       </c>
-      <c r="T22">
+      <c r="T24">
         <v>5.50721883774</v>
       </c>
-      <c r="U22">
+      <c r="U24">
         <v>5.7609148025500003</v>
       </c>
-      <c r="V22">
+      <c r="V24">
         <v>5.9574618339500001</v>
       </c>
-      <c r="W22">
+      <c r="W24">
         <v>6.3218231201200004</v>
       </c>
-      <c r="X22">
+      <c r="X24">
         <v>5.3450460434</v>
       </c>
-      <c r="Y22">
+      <c r="Y24">
         <v>6.0679671764399998</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="3">
-        <f>AVERAGE(B13:B22)</f>
-        <v>79.867371368400001</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" ref="C23:Y23" si="1">AVERAGE(C13:C22)</f>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="3">
+        <f>AVERAGE(B15:B24)</f>
+        <v>76.894712368619992</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:Y25" si="3">AVERAGE(C15:C24)</f>
         <v>39.120261812220001</v>
       </c>
-      <c r="D23" s="3">
-        <f t="shared" si="1"/>
-        <v>25.614404201519999</v>
-      </c>
-      <c r="E23" s="3">
-        <f t="shared" si="1"/>
+      <c r="D25" s="3">
+        <f t="shared" si="3"/>
+        <v>25.674404201519998</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" si="3"/>
         <v>19.632740449900002</v>
       </c>
-      <c r="F23" s="3">
-        <f t="shared" si="1"/>
+      <c r="F25" s="3">
+        <f t="shared" si="3"/>
         <v>15.69544160365</v>
       </c>
-      <c r="G23" s="3">
-        <f t="shared" si="1"/>
+      <c r="G25" s="3">
+        <f t="shared" si="3"/>
         <v>13.074698472029999</v>
       </c>
-      <c r="H23" s="3">
-        <f t="shared" si="1"/>
+      <c r="H25" s="3">
+        <f t="shared" si="3"/>
         <v>10.991032075869999</v>
       </c>
-      <c r="I23" s="3">
-        <f t="shared" si="1"/>
+      <c r="I25" s="3">
+        <f t="shared" si="3"/>
         <v>9.6178818702710007</v>
       </c>
-      <c r="J23" s="3">
-        <f t="shared" si="1"/>
+      <c r="J25" s="3">
+        <f t="shared" si="3"/>
         <v>8.6725450038920009</v>
       </c>
-      <c r="K23" s="3">
-        <f t="shared" si="1"/>
+      <c r="K25" s="3">
+        <f t="shared" si="3"/>
         <v>7.7425762414949997</v>
       </c>
-      <c r="L23" s="3">
-        <f t="shared" si="1"/>
+      <c r="L25" s="3">
+        <f t="shared" si="3"/>
         <v>7.0875785827649995</v>
       </c>
-      <c r="M23" s="3">
-        <f t="shared" si="1"/>
+      <c r="M25" s="3">
+        <f t="shared" si="3"/>
         <v>6.593055915832001</v>
       </c>
-      <c r="N23" s="3">
-        <f t="shared" si="1"/>
+      <c r="N25" s="3">
+        <f t="shared" si="3"/>
         <v>6.5100773334500008</v>
       </c>
-      <c r="O23" s="3">
-        <f t="shared" si="1"/>
+      <c r="O25" s="3">
+        <f t="shared" si="3"/>
         <v>6.1092568874369988</v>
       </c>
-      <c r="P23" s="3">
-        <f t="shared" si="1"/>
+      <c r="P25" s="3">
+        <f t="shared" si="3"/>
         <v>5.9559450864799999</v>
       </c>
-      <c r="Q23" s="3">
-        <f t="shared" si="1"/>
+      <c r="Q25" s="3">
+        <f t="shared" si="3"/>
         <v>5.6115559101099999</v>
       </c>
-      <c r="R23" s="3">
-        <f t="shared" si="1"/>
+      <c r="R25" s="3">
+        <f t="shared" si="3"/>
         <v>5.4406170845029997</v>
       </c>
-      <c r="S23" s="3">
-        <f t="shared" si="1"/>
+      <c r="S25" s="3">
+        <f t="shared" si="3"/>
         <v>5.2651988983160001</v>
       </c>
-      <c r="T23" s="3">
-        <f t="shared" si="1"/>
+      <c r="T25" s="3">
+        <f t="shared" si="3"/>
         <v>5.112633919716</v>
       </c>
-      <c r="U23" s="3">
-        <f t="shared" si="1"/>
+      <c r="U25" s="3">
+        <f t="shared" si="3"/>
         <v>4.9953058719620005</v>
       </c>
-      <c r="V23" s="3">
-        <f t="shared" si="1"/>
+      <c r="V25" s="3">
+        <f t="shared" si="3"/>
         <v>4.9115903377519992</v>
       </c>
-      <c r="W23" s="3">
-        <f t="shared" si="1"/>
+      <c r="W25" s="3">
+        <f t="shared" si="3"/>
         <v>4.8056964874260002</v>
       </c>
-      <c r="X23" s="3">
-        <f t="shared" si="1"/>
+      <c r="X25" s="3">
+        <f t="shared" si="3"/>
         <v>4.6946567535399994</v>
       </c>
-      <c r="Y23" s="3">
-        <f t="shared" si="1"/>
+      <c r="Y25" s="3">
+        <f t="shared" si="3"/>
         <v>4.7080568313599986</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2">
+        <f>$B$25/B25</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" ref="C26:Y26" si="4">$B$25/C25</f>
+        <v>1.965598102019869</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="4"/>
+        <v>2.9949950061184909</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="4"/>
+        <v>3.9166571047401408</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="4"/>
+        <v>4.8991748247935885</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="4"/>
+        <v>5.8811843755415643</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="4"/>
+        <v>6.9961321045943148</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="4"/>
+        <v>7.9949736756803551</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="4"/>
+        <v>8.8664529655495308</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="4"/>
+        <v>9.9314117123595196</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="4"/>
+        <v>10.84922184222498</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" si="4"/>
+        <v>11.662985017914318</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="4"/>
+        <v>11.8116434613642</v>
+      </c>
+      <c r="O26" s="2">
+        <f t="shared" si="4"/>
+        <v>12.586590118144375</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" si="4"/>
+        <v>12.910581150785129</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" si="4"/>
+        <v>13.702921899091026</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" si="4"/>
+        <v>14.133454197253862</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="4"/>
+        <v>14.604331926228596</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="4"/>
+        <v>15.040136566807309</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="4"/>
+        <v>15.393394186374046</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="4"/>
+        <v>15.655766682653375</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="4"/>
+        <v>16.000742570783096</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="4"/>
+        <v>16.37919797025366</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="4"/>
+        <v>16.332579474493663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
+        <f>B26/B1</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" ref="C27:Y27" si="5">C26/C1</f>
+        <v>0.98279905100993448</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.99833166870616363</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.97916427618503521</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.97983496495871769</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.98019739592359401</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.99944744351347359</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.99937170946004439</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.98516144061661448</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.99314117123595191</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.98629289474772541</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.97191541815952653</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.90858795856647689</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.89904215129602683</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.86070541005234191</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.8564326186931891</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.83137965866199182</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.81135177367936651</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.79158613509512155</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.76966970931870227</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.74551269917397023</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.72730648049014068</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.71213904218494173</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="5"/>
+        <v>0.68052414477056933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
         <v>3000</v>
       </c>
-      <c r="B24">
-        <v>352.723416805</v>
-      </c>
-      <c r="C24">
+      <c r="B28">
+        <v>278.723416805</v>
+      </c>
+      <c r="C28">
         <v>160.680486917</v>
       </c>
-      <c r="D24">
+      <c r="D28">
         <v>101.519361973</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <v>77.590075016</v>
       </c>
-      <c r="F24">
+      <c r="F28">
         <v>61.630424022699998</v>
       </c>
-      <c r="G24">
+      <c r="G28">
         <v>51.459646940200003</v>
       </c>
-      <c r="H24">
+      <c r="H28">
         <v>44.052174091300003</v>
       </c>
-      <c r="I24">
+      <c r="I28">
         <v>38.370181083699997</v>
       </c>
-      <c r="J24">
+      <c r="J28">
         <v>35.045231103900001</v>
       </c>
-      <c r="K24">
+      <c r="K28">
         <v>31.966134071399999</v>
       </c>
-      <c r="L24">
+      <c r="L28">
         <v>30.3563001156</v>
       </c>
-      <c r="M24">
+      <c r="M28">
         <v>27.159151077299999</v>
       </c>
-      <c r="N24">
+      <c r="N28">
         <v>25.291502952599998</v>
       </c>
-      <c r="O24">
+      <c r="O28">
         <v>24.580474138300001</v>
       </c>
-      <c r="P24">
+      <c r="P28">
         <v>23.0686581135</v>
       </c>
-      <c r="Q24">
+      <c r="Q28">
         <v>21.7762749195</v>
       </c>
-      <c r="R24">
+      <c r="R28">
         <v>21.227582931499999</v>
       </c>
-      <c r="S24">
+      <c r="S28">
         <v>20.439442873000001</v>
       </c>
-      <c r="T24">
+      <c r="T28">
         <v>19.973073005700002</v>
       </c>
-      <c r="U24">
+      <c r="U28">
         <v>19.557827949499998</v>
       </c>
-      <c r="V24">
+      <c r="V28">
         <v>19.869878053699999</v>
       </c>
-      <c r="W24">
+      <c r="W28">
         <v>20.284744977999999</v>
       </c>
-      <c r="X24">
+      <c r="X28">
         <v>19.316066980399999</v>
       </c>
-      <c r="Y24">
+      <c r="Y28">
         <v>18.959756851200002</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25">
-        <v>336.09034395200001</v>
-      </c>
-      <c r="C25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29">
+        <v>279.09034395200001</v>
+      </c>
+      <c r="C29">
         <v>169.83835101099999</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>108.066601992</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <v>78.7147481441</v>
       </c>
-      <c r="F25">
+      <c r="F29">
         <v>61.397092104000002</v>
       </c>
-      <c r="G25">
+      <c r="G29">
         <v>52.674738168700003</v>
       </c>
-      <c r="H25">
+      <c r="H29">
         <v>44.1590681076</v>
       </c>
-      <c r="I25">
+      <c r="I29">
         <v>38.754867792100001</v>
       </c>
-      <c r="J25">
+      <c r="J29">
         <v>35.0082268715</v>
       </c>
-      <c r="K25">
+      <c r="K29">
         <v>32.004755973800002</v>
       </c>
-      <c r="L25">
+      <c r="L29">
         <v>30.095181942</v>
       </c>
-      <c r="M25">
+      <c r="M29">
         <v>26.9474351406</v>
       </c>
-      <c r="N25">
+      <c r="N29">
         <v>26.108721017800001</v>
       </c>
-      <c r="O25">
+      <c r="O29">
         <v>24.6596779823</v>
       </c>
-      <c r="P25">
+      <c r="P29">
         <v>22.6835579872</v>
       </c>
-      <c r="Q25">
+      <c r="Q29">
         <v>21.8924100399</v>
       </c>
-      <c r="R25">
+      <c r="R29">
         <v>20.970679044699999</v>
       </c>
-      <c r="S25">
+      <c r="S29">
         <v>20.493618011500001</v>
       </c>
-      <c r="T25">
+      <c r="T29">
         <v>19.9507420063</v>
       </c>
-      <c r="U25">
+      <c r="U29">
         <v>19.806631088300001</v>
       </c>
-      <c r="V25">
+      <c r="V29">
         <v>19.818116903300002</v>
       </c>
-      <c r="W25">
+      <c r="W29">
         <v>21.284752130499999</v>
       </c>
-      <c r="X25">
+      <c r="X29">
         <v>20.191613912600001</v>
       </c>
-      <c r="Y25">
+      <c r="Y29">
         <v>19.511835098300001</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26">
-        <v>292.162645817</v>
-      </c>
-      <c r="C26">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30">
+        <v>278.162645817</v>
+      </c>
+      <c r="C30">
         <v>146.732392073</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <v>93.882073879199993</v>
       </c>
-      <c r="E26">
+      <c r="E30">
         <v>70.766760110899995</v>
       </c>
-      <c r="F26">
+      <c r="F30">
         <v>54.909298181499999</v>
       </c>
-      <c r="G26">
+      <c r="G30">
         <v>45.275623083100001</v>
       </c>
-      <c r="H26">
+      <c r="H30">
         <v>38.816756963700001</v>
       </c>
-      <c r="I26">
+      <c r="I30">
         <v>33.553624153100003</v>
       </c>
-      <c r="J26">
+      <c r="J30">
         <v>29.721040010500001</v>
       </c>
-      <c r="K26">
+      <c r="K30">
         <v>27.108770132099998</v>
       </c>
-      <c r="L26">
+      <c r="L30">
         <v>24.3643398285</v>
       </c>
-      <c r="M26">
+      <c r="M30">
         <v>22.5272779465</v>
       </c>
-      <c r="N26">
+      <c r="N30">
         <v>21.639322042500002</v>
       </c>
-      <c r="O26">
+      <c r="O30">
         <v>21.5245981216</v>
       </c>
-      <c r="P26">
+      <c r="P30">
         <v>20.350325822799999</v>
       </c>
-      <c r="Q26">
+      <c r="Q30">
         <v>19.500681161900001</v>
       </c>
-      <c r="R26">
+      <c r="R30">
         <v>18.239678144500001</v>
       </c>
-      <c r="S26">
+      <c r="S30">
         <v>17.479904890099998</v>
       </c>
-      <c r="T26">
+      <c r="T30">
         <v>17.128159999800001</v>
       </c>
-      <c r="U26">
+      <c r="U30">
         <v>16.554794073099998</v>
       </c>
-      <c r="V26">
+      <c r="V30">
         <v>16.593605041499998</v>
       </c>
-      <c r="W26">
+      <c r="W30">
         <v>16.137876033800001</v>
       </c>
-      <c r="X26">
+      <c r="X30">
         <v>15.654695034</v>
       </c>
-      <c r="Y26">
+      <c r="Y30">
         <v>16.331655025500002</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27">
-        <v>283.14690399199998</v>
-      </c>
-      <c r="C27">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="7"/>
+      <c r="B31">
+        <v>278.14690399199998</v>
+      </c>
+      <c r="C31">
         <v>141.67583799400001</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>92.7119140625</v>
       </c>
-      <c r="E27">
+      <c r="E31">
         <v>73.593087911599994</v>
       </c>
-      <c r="F27">
+      <c r="F31">
         <v>55.9349119663</v>
       </c>
-      <c r="G27">
+      <c r="G31">
         <v>48.407505989100002</v>
       </c>
-      <c r="H27">
+      <c r="H31">
         <v>39.6096789837</v>
       </c>
-      <c r="I27">
+      <c r="I31">
         <v>33.628153801000003</v>
       </c>
-      <c r="J27">
+      <c r="J31">
         <v>30.7155599594</v>
       </c>
-      <c r="K27">
+      <c r="K31">
         <v>28.002444028900001</v>
       </c>
-      <c r="L27">
+      <c r="L31">
         <v>24.540743112600001</v>
       </c>
-      <c r="M27">
+      <c r="M31">
         <v>22.448350906400002</v>
       </c>
-      <c r="N27">
+      <c r="N31">
         <v>21.984019994699999</v>
       </c>
-      <c r="O27">
+      <c r="O31">
         <v>21.014780998199999</v>
       </c>
-      <c r="P27">
+      <c r="P31">
         <v>20.691262006799999</v>
       </c>
-      <c r="Q27">
+      <c r="Q31">
         <v>18.920626878699998</v>
       </c>
-      <c r="R27">
+      <c r="R31">
         <v>18.7616388798</v>
       </c>
-      <c r="S27">
+      <c r="S31">
         <v>17.3703329563</v>
       </c>
-      <c r="T27">
+      <c r="T31">
         <v>17.1805479527</v>
       </c>
-      <c r="U27">
+      <c r="U31">
         <v>16.933228969599998</v>
       </c>
-      <c r="V27">
+      <c r="V31">
         <v>15.908784151100001</v>
       </c>
-      <c r="W27">
+      <c r="W31">
         <v>16.1168680191</v>
       </c>
-      <c r="X27">
+      <c r="X31">
         <v>16.3352198601</v>
       </c>
-      <c r="Y27">
+      <c r="Y31">
         <v>15.861330986</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28">
-        <v>287.23666310300001</v>
-      </c>
-      <c r="C28">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32">
+        <v>278.23666310300001</v>
+      </c>
+      <c r="C32">
         <v>139.574681997</v>
       </c>
-      <c r="D28">
+      <c r="D32">
         <v>90.880709171299998</v>
       </c>
-      <c r="E28">
+      <c r="E32">
         <v>66.831562042200005</v>
       </c>
-      <c r="F28">
+      <c r="F32">
         <v>57.681016921999998</v>
       </c>
-      <c r="G28">
+      <c r="G32">
         <v>47.533900976200002</v>
       </c>
-      <c r="H28">
+      <c r="H32">
         <v>38.437972068800001</v>
       </c>
-      <c r="I28">
+      <c r="I32">
         <v>34.070975065200003</v>
       </c>
-      <c r="J28">
+      <c r="J32">
         <v>30.144422054300001</v>
       </c>
-      <c r="K28">
+      <c r="K32">
         <v>27.833546876900002</v>
       </c>
-      <c r="L28">
+      <c r="L32">
         <v>24.796077013000001</v>
       </c>
-      <c r="M28">
+      <c r="M32">
         <v>22.431581974</v>
       </c>
-      <c r="N28">
+      <c r="N32">
         <v>23.0975768566</v>
       </c>
-      <c r="O28">
+      <c r="O32">
         <v>20.650840997700001</v>
       </c>
-      <c r="P28">
+      <c r="P32">
         <v>20.180606126800001</v>
       </c>
-      <c r="Q28">
+      <c r="Q32">
         <v>19.002188920999998</v>
       </c>
-      <c r="R28">
+      <c r="R32">
         <v>18.454569101299999</v>
       </c>
-      <c r="S28">
+      <c r="S32">
         <v>17.541467905000001</v>
       </c>
-      <c r="T28">
+      <c r="T32">
         <v>17.340564966199999</v>
       </c>
-      <c r="U28">
+      <c r="U32">
         <v>16.437765836699999</v>
       </c>
-      <c r="V28">
+      <c r="V32">
         <v>16.460786819500001</v>
       </c>
-      <c r="W28">
+      <c r="W32">
         <v>16.212816</v>
       </c>
-      <c r="X28">
+      <c r="X32">
         <v>16.050655126599999</v>
       </c>
-      <c r="Y28">
+      <c r="Y32">
         <v>15.9007401466</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29">
-        <v>285.83423614499998</v>
-      </c>
-      <c r="C29">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33">
+        <v>276.83423614499998</v>
+      </c>
+      <c r="C33">
         <v>139.138098001</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>92.072854995699998</v>
       </c>
-      <c r="E29">
+      <c r="E33">
         <v>70.189396142999996</v>
       </c>
-      <c r="F29">
+      <c r="F33">
         <v>54.485228061699999</v>
       </c>
-      <c r="G29">
+      <c r="G33">
         <v>48.071868181200003</v>
       </c>
-      <c r="H29">
+      <c r="H33">
         <v>38.835766077000002</v>
       </c>
-      <c r="I29">
+      <c r="I33">
         <v>34.262451887099999</v>
       </c>
-      <c r="J29">
+      <c r="J33">
         <v>29.875574111900001</v>
       </c>
-      <c r="K29">
+      <c r="K33">
         <v>26.765666008</v>
       </c>
-      <c r="L29">
+      <c r="L33">
         <v>24.338572978999998</v>
       </c>
-      <c r="M29">
+      <c r="M33">
         <v>22.924654007000001</v>
       </c>
-      <c r="N29">
+      <c r="N33">
         <v>22.6288900375</v>
       </c>
-      <c r="O29">
+      <c r="O33">
         <v>21.1911251545</v>
       </c>
-      <c r="P29">
+      <c r="P33">
         <v>20.309036970099999</v>
       </c>
-      <c r="Q29">
+      <c r="Q33">
         <v>19.335803985599998</v>
       </c>
-      <c r="R29">
+      <c r="R33">
         <v>18.107867002500001</v>
       </c>
-      <c r="S29">
+      <c r="S33">
         <v>17.829695940000001</v>
       </c>
-      <c r="T29">
+      <c r="T33">
         <v>17.129601001699999</v>
       </c>
-      <c r="U29">
+      <c r="U33">
         <v>16.606854200400001</v>
       </c>
-      <c r="V29">
+      <c r="V33">
         <v>16.4538660049</v>
       </c>
-      <c r="W29">
+      <c r="W33">
         <v>16.141785860100001</v>
       </c>
-      <c r="X29">
+      <c r="X33">
         <v>15.983080148699999</v>
       </c>
-      <c r="Y29">
+      <c r="Y33">
         <v>15.5354559422</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30">
-        <v>287.91127610199999</v>
-      </c>
-      <c r="C30">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34">
+        <v>278.91127610199999</v>
+      </c>
+      <c r="C34">
         <v>138.38024616199999</v>
       </c>
-      <c r="D30">
+      <c r="D34">
         <v>90.496994018600006</v>
       </c>
-      <c r="E30">
+      <c r="E34">
         <v>67.920538187000005</v>
       </c>
-      <c r="F30">
+      <c r="F34">
         <v>54.874746084199998</v>
       </c>
-      <c r="G30">
+      <c r="G34">
         <v>44.463265895799999</v>
       </c>
-      <c r="H30">
+      <c r="H34">
         <v>38.246616125099997</v>
       </c>
-      <c r="I30">
+      <c r="I34">
         <v>34.309079885499997</v>
       </c>
-      <c r="J30">
+      <c r="J34">
         <v>30.277017116500001</v>
       </c>
-      <c r="K30">
+      <c r="K34">
         <v>27.414813995399999</v>
       </c>
-      <c r="L30">
+      <c r="L34">
         <v>24.579452037799999</v>
       </c>
-      <c r="M30">
+      <c r="M34">
         <v>22.974622011200001</v>
       </c>
-      <c r="N30">
+      <c r="N34">
         <v>21.647162914300001</v>
       </c>
-      <c r="O30">
+      <c r="O34">
         <v>21.410151004799999</v>
       </c>
-      <c r="P30">
+      <c r="P34">
         <v>20.011869192100001</v>
       </c>
-      <c r="Q30">
+      <c r="Q34">
         <v>19.502264976500001</v>
       </c>
-      <c r="R30">
+      <c r="R34">
         <v>18.5038309097</v>
       </c>
-      <c r="S30">
+      <c r="S34">
         <v>17.4714348316</v>
       </c>
-      <c r="T30">
+      <c r="T34">
         <v>17.382652044299999</v>
       </c>
-      <c r="U30">
+      <c r="U34">
         <v>16.8287780285</v>
       </c>
-      <c r="V30">
+      <c r="V34">
         <v>16.1499011517</v>
       </c>
-      <c r="W30">
+      <c r="W34">
         <v>15.990309</v>
       </c>
-      <c r="X30">
+      <c r="X34">
         <v>16.1119830608</v>
       </c>
-      <c r="Y30">
+      <c r="Y34">
         <v>16.131175041199999</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31">
-        <v>289.47466611900001</v>
-      </c>
-      <c r="C31">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35">
+        <v>279.47466611900001</v>
+      </c>
+      <c r="C35">
         <v>145.715209007</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <v>91.2370641232</v>
       </c>
-      <c r="E31">
+      <c r="E35">
         <v>72.185292959199998</v>
       </c>
-      <c r="F31">
+      <c r="F35">
         <v>54.291957855200003</v>
       </c>
-      <c r="G31">
+      <c r="G35">
         <v>45.182510137599998</v>
       </c>
-      <c r="H31">
+      <c r="H35">
         <v>39.626454830199997</v>
       </c>
-      <c r="I31">
+      <c r="I35">
         <v>33.556420087799999</v>
       </c>
-      <c r="J31">
+      <c r="J35">
         <v>30.028908014300001</v>
       </c>
-      <c r="K31">
+      <c r="K35">
         <v>27.040569067</v>
       </c>
-      <c r="L31">
+      <c r="L35">
         <v>24.510864973099999</v>
       </c>
-      <c r="M31">
+      <c r="M35">
         <v>22.382146835299999</v>
       </c>
-      <c r="N31">
+      <c r="N35">
         <v>21.874431848499999</v>
       </c>
-      <c r="O31">
+      <c r="O35">
         <v>21.280987977999999</v>
       </c>
-      <c r="P31">
+      <c r="P35">
         <v>20.324617862699998</v>
       </c>
-      <c r="Q31">
+      <c r="Q35">
         <v>18.9573750496</v>
       </c>
-      <c r="R31">
+      <c r="R35">
         <v>18.996809005700001</v>
       </c>
-      <c r="S31">
+      <c r="S35">
         <v>18.491155147600001</v>
       </c>
-      <c r="T31">
+      <c r="T35">
         <v>16.879832029300001</v>
       </c>
-      <c r="U31">
+      <c r="U35">
         <v>16.8102340698</v>
       </c>
-      <c r="V31">
+      <c r="V35">
         <v>16.3801820278</v>
       </c>
-      <c r="W31">
+      <c r="W35">
         <v>16.0221979618</v>
       </c>
-      <c r="X31">
+      <c r="X35">
         <v>15.7673828602</v>
       </c>
-      <c r="Y31">
+      <c r="Y35">
         <v>15.819650173199999</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32">
-        <v>290.09897899600003</v>
-      </c>
-      <c r="C32">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36">
+        <v>278.09897899600003</v>
+      </c>
+      <c r="C36">
         <v>136.79824495299999</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <v>89.234168052699999</v>
       </c>
-      <c r="E32">
+      <c r="E36">
         <v>68.572094202000002</v>
       </c>
-      <c r="F32">
+      <c r="F36">
         <v>53.794411182399998</v>
       </c>
-      <c r="G32">
+      <c r="G36">
         <v>47.519083023100002</v>
       </c>
-      <c r="H32">
+      <c r="H36">
         <v>38.741674184799997</v>
       </c>
-      <c r="I32">
+      <c r="I36">
         <v>33.982428073900003</v>
       </c>
-      <c r="J32">
+      <c r="J36">
         <v>30.1563999653</v>
       </c>
-      <c r="K32">
+      <c r="K36">
         <v>27.1532800198</v>
       </c>
-      <c r="L32">
+      <c r="L36">
         <v>24.979156017299999</v>
       </c>
-      <c r="M32">
+      <c r="M36">
         <v>22.954077005399999</v>
       </c>
-      <c r="N32">
+      <c r="N36">
         <v>22.487724065799998</v>
       </c>
-      <c r="O32">
+      <c r="O36">
         <v>21.343121051800001</v>
       </c>
-      <c r="P32">
+      <c r="P36">
         <v>20.9543261528</v>
       </c>
-      <c r="Q32">
+      <c r="Q36">
         <v>18.9460449219</v>
       </c>
-      <c r="R32">
+      <c r="R36">
         <v>18.794152975100001</v>
       </c>
-      <c r="S32">
+      <c r="S36">
         <v>17.7602500916</v>
       </c>
-      <c r="T32">
+      <c r="T36">
         <v>16.774972200400001</v>
       </c>
-      <c r="U32">
+      <c r="U36">
         <v>16.658174991599999</v>
       </c>
-      <c r="V32">
+      <c r="V36">
         <v>16.4611589909</v>
       </c>
-      <c r="W32">
+      <c r="W36">
         <v>16.010722160299999</v>
       </c>
-      <c r="X32">
+      <c r="X36">
         <v>16.014645099599999</v>
       </c>
-      <c r="Y32">
+      <c r="Y36">
         <v>15.9645349979</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33">
-        <v>284.74199700399998</v>
-      </c>
-      <c r="C33">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37">
+        <v>279.74199700399998</v>
+      </c>
+      <c r="C37">
         <v>139.226119995</v>
       </c>
-      <c r="D33">
+      <c r="D37">
         <v>91.842610836000006</v>
       </c>
-      <c r="E33">
+      <c r="E37">
         <v>69.395334005400002</v>
       </c>
-      <c r="F33">
+      <c r="F37">
         <v>55.330160141</v>
       </c>
-      <c r="G33">
+      <c r="G37">
         <v>45.7855410576</v>
       </c>
-      <c r="H33">
+      <c r="H37">
         <v>38.897046804399999</v>
       </c>
-      <c r="I33">
+      <c r="I37">
         <v>34.108583927200002</v>
       </c>
-      <c r="J33">
+      <c r="J37">
         <v>30.295298099499998</v>
       </c>
-      <c r="K33">
+      <c r="K37">
         <v>27.116088151900001</v>
       </c>
-      <c r="L33">
+      <c r="L37">
         <v>24.870885849</v>
       </c>
-      <c r="M33">
+      <c r="M37">
         <v>22.275158166899999</v>
       </c>
-      <c r="N33">
+      <c r="N37">
         <v>21.861237049100001</v>
       </c>
-      <c r="O33">
+      <c r="O37">
         <v>21.135857105300001</v>
       </c>
-      <c r="P33">
+      <c r="P37">
         <v>20.091997146600001</v>
       </c>
-      <c r="Q33">
+      <c r="Q37">
         <v>19.256526947000001</v>
       </c>
-      <c r="R33">
+      <c r="R37">
         <v>18.5786709785</v>
       </c>
-      <c r="S33">
+      <c r="S37">
         <v>18.2110779285</v>
       </c>
-      <c r="T33">
+      <c r="T37">
         <v>17.2675261497</v>
       </c>
-      <c r="U33">
+      <c r="U37">
         <v>16.282559871699998</v>
       </c>
-      <c r="V33">
+      <c r="V37">
         <v>16.3824298382</v>
       </c>
-      <c r="W33">
+      <c r="W37">
         <v>16.001107931100002</v>
       </c>
-      <c r="X33">
+      <c r="X37">
         <v>15.954562187200001</v>
       </c>
-      <c r="Y33">
+      <c r="Y37">
         <v>15.769961834</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="3">
-        <f>AVERAGE(B24:B33)</f>
-        <v>298.94211280349998</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" ref="C34:Y34" si="2">AVERAGE(C24:C33)</f>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="3">
+        <f>AVERAGE(B28:B37)</f>
+        <v>278.5421128035</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" ref="C38:Y38" si="6">AVERAGE(C28:C37)</f>
         <v>145.77596681100002</v>
       </c>
-      <c r="D34" s="3">
-        <f t="shared" si="2"/>
+      <c r="D38" s="3">
+        <f t="shared" si="6"/>
         <v>94.194435310420005</v>
       </c>
-      <c r="E34" s="3">
-        <f t="shared" si="2"/>
+      <c r="E38" s="3">
+        <f t="shared" si="6"/>
         <v>71.575888872139984</v>
       </c>
-      <c r="F34" s="3">
-        <f t="shared" si="2"/>
+      <c r="F38" s="3">
+        <f t="shared" si="6"/>
         <v>56.432924652099999</v>
       </c>
-      <c r="G34" s="3">
-        <f t="shared" si="2"/>
+      <c r="G38" s="3">
+        <f t="shared" si="6"/>
         <v>47.637368345260008</v>
       </c>
-      <c r="H34" s="3">
-        <f t="shared" si="2"/>
+      <c r="H38" s="3">
+        <f t="shared" si="6"/>
         <v>39.942320823659998</v>
       </c>
-      <c r="I34" s="3">
-        <f t="shared" si="2"/>
+      <c r="I38" s="3">
+        <f t="shared" si="6"/>
         <v>34.859676575660004</v>
       </c>
-      <c r="J34" s="3">
-        <f t="shared" si="2"/>
+      <c r="J38" s="3">
+        <f t="shared" si="6"/>
         <v>31.126767730709997</v>
       </c>
-      <c r="K34" s="3">
-        <f t="shared" si="2"/>
+      <c r="K38" s="3">
+        <f t="shared" si="6"/>
         <v>28.240606832520001</v>
       </c>
-      <c r="L34" s="3">
-        <f t="shared" si="2"/>
+      <c r="L38" s="3">
+        <f t="shared" si="6"/>
         <v>25.743157386789996</v>
       </c>
-      <c r="M34" s="3">
-        <f t="shared" si="2"/>
+      <c r="M38" s="3">
+        <f t="shared" si="6"/>
         <v>23.502445507060003</v>
       </c>
-      <c r="N34" s="3">
-        <f t="shared" si="2"/>
+      <c r="N38" s="3">
+        <f t="shared" si="6"/>
         <v>22.862058877940001</v>
       </c>
-      <c r="O34" s="3">
-        <f t="shared" si="2"/>
+      <c r="O38" s="3">
+        <f t="shared" si="6"/>
         <v>21.879161453249999</v>
       </c>
-      <c r="P34" s="3">
-        <f t="shared" si="2"/>
+      <c r="P38" s="3">
+        <f t="shared" si="6"/>
         <v>20.866625738139998</v>
       </c>
-      <c r="Q34" s="3">
-        <f t="shared" si="2"/>
+      <c r="Q38" s="3">
+        <f t="shared" si="6"/>
         <v>19.709019780159998</v>
       </c>
-      <c r="R34" s="3">
-        <f t="shared" si="2"/>
+      <c r="R38" s="3">
+        <f t="shared" si="6"/>
         <v>19.06354789733</v>
       </c>
-      <c r="S34" s="3">
-        <f t="shared" si="2"/>
+      <c r="S38" s="3">
+        <f t="shared" si="6"/>
         <v>18.308838057519999</v>
       </c>
-      <c r="T34" s="3">
-        <f t="shared" si="2"/>
+      <c r="T38" s="3">
+        <f t="shared" si="6"/>
         <v>17.70076713561</v>
       </c>
-      <c r="U34" s="3">
-        <f t="shared" si="2"/>
+      <c r="U38" s="3">
+        <f t="shared" si="6"/>
         <v>17.247684907919997</v>
       </c>
-      <c r="V34" s="3">
-        <f t="shared" si="2"/>
+      <c r="V38" s="3">
+        <f t="shared" si="6"/>
         <v>17.047870898260001</v>
       </c>
-      <c r="W34" s="3">
-        <f t="shared" si="2"/>
+      <c r="W38" s="3">
+        <f t="shared" si="6"/>
         <v>17.020318007469999</v>
       </c>
-      <c r="X34" s="3">
-        <f t="shared" si="2"/>
+      <c r="X38" s="3">
+        <f t="shared" si="6"/>
         <v>16.737990427019998</v>
       </c>
-      <c r="Y34" s="3">
-        <f t="shared" si="2"/>
+      <c r="Y38" s="3">
+        <f t="shared" si="6"/>
         <v>16.578609609609998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2">
+        <f>$B$38/B38</f>
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" ref="C39:Y39" si="7">$B$38/C38</f>
+        <v>1.9107546936363839</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="7"/>
+        <v>2.957097326243932</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="7"/>
+        <v>3.8915634467505584</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="7"/>
+        <v>4.9358085642498208</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="7"/>
+        <v>5.8471347700132847</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="7"/>
+        <v>6.9736086201206522</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="7"/>
+        <v>7.9903814425514739</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="7"/>
+        <v>8.9486359526076793</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="7"/>
+        <v>9.8631773196441888</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="7"/>
+        <v>10.820044667342664</v>
+      </c>
+      <c r="M39" s="2">
+        <f t="shared" si="7"/>
+        <v>11.851622535187987</v>
+      </c>
+      <c r="N39" s="2">
+        <f t="shared" si="7"/>
+        <v>12.183597036934856</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="7"/>
+        <v>12.730931822897833</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="7"/>
+        <v>13.348689735417116</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="7"/>
+        <v>14.132722779237008</v>
+      </c>
+      <c r="R39" s="2">
+        <f t="shared" si="7"/>
+        <v>14.611242057545438</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="7"/>
+        <v>15.213533044992674</v>
+      </c>
+      <c r="T39" s="2">
+        <f t="shared" si="7"/>
+        <v>15.736160510418518</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="7"/>
+        <v>16.149536258955877</v>
+      </c>
+      <c r="V39" s="2">
+        <f t="shared" si="7"/>
+        <v>16.338821103574261</v>
+      </c>
+      <c r="W39" s="2">
+        <f t="shared" si="7"/>
+        <v>16.365270771160176</v>
+      </c>
+      <c r="X39" s="2">
+        <f t="shared" si="7"/>
+        <v>16.641311513349404</v>
+      </c>
+      <c r="Y39" s="2">
+        <f t="shared" si="7"/>
+        <v>16.801295124413787</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2">
+        <f>B39/B1</f>
+        <v>1</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" ref="C40:Y40" si="8">C39/C1</f>
+        <v>0.95537734681819197</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.98569910874797728</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.97289086168763961</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.98716171284996412</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.97452246166888079</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.9962298028743789</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.99879768031893423</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.99429288362307544</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.98631773196441885</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.98364042430387855</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.98763521126566556</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.93719977207191196</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.90935227306413091</v>
+      </c>
+      <c r="P40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.88991264902780776</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.88329517370231303</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.85948482691443751</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.84519628027737081</v>
+      </c>
+      <c r="T40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.82821897423255353</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.80747681294779383</v>
+      </c>
+      <c r="V40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.77803910017020295</v>
+      </c>
+      <c r="W40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.74387594414364433</v>
+      </c>
+      <c r="X40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.72353528318910454</v>
+      </c>
+      <c r="Y40" s="2">
+        <f t="shared" si="8"/>
+        <v>0.70005396351724114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A28:A38"/>
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A15:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
